--- a/ope.ed.gov/2004/disciplinary-actions-public-property-virginia-colleges-and-universities-crime-2004.xlsx
+++ b/ope.ed.gov/2004/disciplinary-actions-public-property-virginia-colleges-and-universities-crime-2004.xlsx
@@ -13,16 +13,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Disciplinary Actions - Public Property</t>
-  </si>
-  <si>
-    <t>Survey year</t>
-  </si>
-  <si>
-    <t>Unitid</t>
-  </si>
-  <si>
-    <t>Institution name</t>
+    <t>Survey Year</t>
+  </si>
+  <si>
+    <t>UnitID</t>
+  </si>
+  <si>
+    <t>Institution Name</t>
   </si>
   <si>
     <t>Campus ID</t>
@@ -34,13 +31,13 @@
     <t>Institution Size</t>
   </si>
   <si>
-    <t>Illegal weapons possession</t>
-  </si>
-  <si>
-    <t>Drug law violations</t>
-  </si>
-  <si>
-    <t>Liquor law violations</t>
+    <t>Illegal Weapons Possession</t>
+  </si>
+  <si>
+    <t>Drug Law Violations</t>
+  </si>
+  <si>
+    <t>Liquor Law Violations</t>
   </si>
   <si>
     <t>ACT College</t>
@@ -1447,34 +1444,58 @@
       <c t="s" s="1" r="A1">
         <v>0</v>
       </c>
+      <c t="s" s="1" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>2</v>
+      </c>
+      <c t="s" s="1" r="D1">
+        <v>3</v>
+      </c>
+      <c t="s" s="1" r="E1">
+        <v>4</v>
+      </c>
+      <c t="s" s="1" r="F1">
+        <v>5</v>
+      </c>
+      <c t="s" s="1" r="G1">
+        <v>6</v>
+      </c>
+      <c t="s" s="1" r="H1">
+        <v>7</v>
+      </c>
+      <c t="s" s="1" r="I1">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
-      <c t="s" s="1" r="A2">
-        <v>1</v>
-      </c>
-      <c t="s" s="1" r="B2">
-        <v>2</v>
+      <c s="1" r="A2">
+        <v>2004.0</v>
+      </c>
+      <c s="1" r="B2">
+        <v>419022.0</v>
       </c>
       <c t="s" s="1" r="C2">
-        <v>3</v>
-      </c>
-      <c t="s" s="1" r="D2">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c s="1" r="D2">
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E2">
-        <v>5</v>
-      </c>
-      <c t="s" s="1" r="F2">
-        <v>6</v>
-      </c>
-      <c t="s" s="1" r="G2">
-        <v>7</v>
-      </c>
-      <c t="s" s="1" r="H2">
-        <v>8</v>
-      </c>
-      <c t="s" s="1" r="I2">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c s="1" r="F2">
+        <v>459.0</v>
+      </c>
+      <c s="1" r="G2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -1485,13 +1506,13 @@
         <v>419022.0</v>
       </c>
       <c t="s" s="1" r="C3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c s="1" r="D3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c s="1" r="F3">
         <v>459.0</v>
@@ -1514,13 +1535,13 @@
         <v>419022.0</v>
       </c>
       <c t="s" s="1" r="C4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c s="1" r="D4">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c s="1" r="F4">
         <v>459.0</v>
@@ -1540,19 +1561,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B5">
-        <v>419022.0</v>
+        <v>231411.0</v>
       </c>
       <c t="s" s="1" r="C5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c s="1" r="D5">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c s="1" r="F5">
-        <v>459.0</v>
+        <v>611.0</v>
       </c>
       <c s="1" r="G5">
         <v>0.0</v>
@@ -1569,19 +1590,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B6">
-        <v>231411.0</v>
+        <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c s="1" r="D6">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c s="1" r="F6">
-        <v>611.0</v>
+        <v>2875.0</v>
       </c>
       <c s="1" r="G6">
         <v>0.0</v>
@@ -1601,13 +1622,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c s="1" r="D7">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c s="1" r="F7">
         <v>2875.0</v>
@@ -1630,13 +1651,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c s="1" r="D8">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c s="1" r="F8">
         <v>2875.0</v>
@@ -1659,13 +1680,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c s="1" r="D9">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c s="1" r="F9">
         <v>2875.0</v>
@@ -1688,13 +1709,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c s="1" r="D10">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E10">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c s="1" r="F10">
         <v>2875.0</v>
@@ -1717,13 +1738,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c s="1" r="D11">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c s="1" r="F11">
         <v>2875.0</v>
@@ -1746,13 +1767,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c s="1" r="D12">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E12">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c s="1" r="F12">
         <v>2875.0</v>
@@ -1775,13 +1796,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c s="1" r="D13">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E13">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c s="1" r="F13">
         <v>2875.0</v>
@@ -1804,13 +1825,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C14">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c s="1" r="D14">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E14">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c s="1" r="F14">
         <v>2875.0</v>
@@ -1833,13 +1854,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C15">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c s="1" r="D15">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c t="s" s="1" r="E15">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c s="1" r="F15">
         <v>2875.0</v>
@@ -1862,13 +1883,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C16">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c s="1" r="D16">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c t="s" s="1" r="E16">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c s="1" r="F16">
         <v>2875.0</v>
@@ -1888,19 +1909,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B17">
-        <v>232797.0</v>
+        <v>432348.0</v>
       </c>
       <c t="s" s="1" r="C17">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c s="1" r="D17">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E17">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c s="1" r="F17">
-        <v>2875.0</v>
+        <v>369.0</v>
       </c>
       <c s="1" r="G17">
         <v>0.0</v>
@@ -1917,19 +1938,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B18">
-        <v>432348.0</v>
+        <v>419457.0</v>
       </c>
       <c t="s" s="1" r="C18">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c s="1" r="D18">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E18">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c s="1" r="F18">
-        <v>369.0</v>
+        <v>789.0</v>
       </c>
       <c s="1" r="G18">
         <v>0.0</v>
@@ -1946,19 +1967,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B19">
-        <v>419457.0</v>
+        <v>231420.0</v>
       </c>
       <c t="s" s="1" r="C19">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c s="1" r="D19">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E19">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c s="1" r="F19">
-        <v>789.0</v>
+        <v>2719.0</v>
       </c>
       <c s="1" r="G19">
         <v>0.0</v>
@@ -1975,19 +1996,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B20">
-        <v>231420.0</v>
+        <v>427973.0</v>
       </c>
       <c t="s" s="1" r="C20">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c s="1" r="D20">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E20">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c s="1" r="F20">
-        <v>2719.0</v>
+        <v>201.0</v>
       </c>
       <c s="1" r="G20">
         <v>0.0</v>
@@ -2004,19 +2025,16 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B21">
-        <v>427973.0</v>
+        <v>445762.0</v>
       </c>
       <c t="s" s="1" r="C21">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c s="1" r="D21">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E21">
-        <v>47</v>
-      </c>
-      <c s="1" r="F21">
-        <v>201.0</v>
+        <v>48</v>
       </c>
       <c s="1" r="G21">
         <v>0.0</v>
@@ -2033,16 +2051,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B22">
-        <v>445762.0</v>
+        <v>445595.0</v>
       </c>
       <c t="s" s="1" r="C22">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c s="1" r="D22">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E22">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c s="1" r="F22">
+        <v>156.0</v>
       </c>
       <c s="1" r="G22">
         <v>0.0</v>
@@ -2059,19 +2080,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B23">
-        <v>445595.0</v>
+        <v>366793.0</v>
       </c>
       <c t="s" s="1" r="C23">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c s="1" r="D23">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E23">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c s="1" r="F23">
-        <v>156.0</v>
+        <v>202.0</v>
       </c>
       <c s="1" r="G23">
         <v>0.0</v>
@@ -2088,19 +2109,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B24">
-        <v>366793.0</v>
+        <v>231280.0</v>
       </c>
       <c t="s" s="1" r="C24">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c s="1" r="D24">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E24">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c s="1" r="F24">
-        <v>202.0</v>
+        <v>83.0</v>
       </c>
       <c s="1" r="G24">
         <v>0.0</v>
@@ -2117,19 +2138,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B25">
-        <v>231280.0</v>
+        <v>231536.0</v>
       </c>
       <c t="s" s="1" r="C25">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c s="1" r="D25">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E25">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c s="1" r="F25">
-        <v>83.0</v>
+        <v>3942.0</v>
       </c>
       <c s="1" r="G25">
         <v>0.0</v>
@@ -2149,13 +2170,13 @@
         <v>231536.0</v>
       </c>
       <c t="s" s="1" r="C26">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c s="1" r="D26">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E26">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c s="1" r="F26">
         <v>3942.0</v>
@@ -2178,13 +2199,13 @@
         <v>231536.0</v>
       </c>
       <c t="s" s="1" r="C27">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c s="1" r="D27">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E27">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c s="1" r="F27">
         <v>3942.0</v>
@@ -2204,19 +2225,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B28">
-        <v>231536.0</v>
+        <v>231554.0</v>
       </c>
       <c t="s" s="1" r="C28">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c s="1" r="D28">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E28">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c s="1" r="F28">
-        <v>3942.0</v>
+        <v>814.0</v>
       </c>
       <c s="1" r="G28">
         <v>0.0</v>
@@ -2233,19 +2254,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B29">
-        <v>231554.0</v>
+        <v>233356.0</v>
       </c>
       <c t="s" s="1" r="C29">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c s="1" r="D29">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E29">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c s="1" r="F29">
-        <v>814.0</v>
+        <v>452.0</v>
       </c>
       <c s="1" r="G29">
         <v>0.0</v>
@@ -2262,19 +2283,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B30">
-        <v>233356.0</v>
+        <v>231572.0</v>
       </c>
       <c t="s" s="1" r="C30">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c s="1" r="D30">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E30">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c s="1" r="F30">
-        <v>452.0</v>
+        <v>62.0</v>
       </c>
       <c s="1" r="G30">
         <v>0.0</v>
@@ -2291,19 +2312,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B31">
-        <v>231572.0</v>
+        <v>231581.0</v>
       </c>
       <c t="s" s="1" r="C31">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c s="1" r="D31">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E31">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c s="1" r="F31">
-        <v>62.0</v>
+        <v>1532.0</v>
       </c>
       <c s="1" r="G31">
         <v>0.0</v>
@@ -2320,19 +2341,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B32">
-        <v>231581.0</v>
+        <v>231828.0</v>
       </c>
       <c t="s" s="1" r="C32">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c s="1" r="D32">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E32">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c s="1" r="F32">
-        <v>1532.0</v>
+        <v>470.0</v>
       </c>
       <c s="1" r="G32">
         <v>0.0</v>
@@ -2349,19 +2370,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B33">
-        <v>231828.0</v>
+        <v>231785.0</v>
       </c>
       <c t="s" s="1" r="C33">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c s="1" r="D33">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E33">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c s="1" r="F33">
-        <v>470.0</v>
+        <v>455.0</v>
       </c>
       <c s="1" r="G33">
         <v>0.0</v>
@@ -2378,19 +2399,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B34">
-        <v>231785.0</v>
+        <v>441858.0</v>
       </c>
       <c t="s" s="1" r="C34">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c s="1" r="D34">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E34">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c s="1" r="F34">
-        <v>455.0</v>
+        <v>179.0</v>
       </c>
       <c s="1" r="G34">
         <v>0.0</v>
@@ -2407,19 +2428,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B35">
-        <v>441858.0</v>
+        <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C35">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c s="1" r="D35">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E35">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c s="1" r="F35">
-        <v>179.0</v>
+        <v>4480.0</v>
       </c>
       <c s="1" r="G35">
         <v>0.0</v>
@@ -2439,13 +2460,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C36">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c s="1" r="D36">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E36">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c s="1" r="F36">
         <v>4480.0</v>
@@ -2468,13 +2489,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C37">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c s="1" r="D37">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E37">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c s="1" r="F37">
         <v>4480.0</v>
@@ -2494,19 +2515,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B38">
-        <v>231697.0</v>
+        <v>420024.0</v>
       </c>
       <c t="s" s="1" r="C38">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c s="1" r="D38">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E38">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c s="1" r="F38">
-        <v>4480.0</v>
+        <v>211.0</v>
       </c>
       <c s="1" r="G38">
         <v>0.0</v>
@@ -2523,19 +2544,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B39">
-        <v>420024.0</v>
+        <v>377449.0</v>
       </c>
       <c t="s" s="1" r="C39">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c s="1" r="D39">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E39">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c s="1" r="F39">
-        <v>211.0</v>
+        <v>278.0</v>
       </c>
       <c s="1" r="G39">
         <v>0.0</v>
@@ -2552,19 +2573,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B40">
-        <v>377449.0</v>
+        <v>377458.0</v>
       </c>
       <c t="s" s="1" r="C40">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c s="1" r="D40">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E40">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c s="1" r="F40">
-        <v>278.0</v>
+        <v>406.0</v>
       </c>
       <c s="1" r="G40">
         <v>0.0</v>
@@ -2581,19 +2602,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B41">
-        <v>377458.0</v>
+        <v>427982.0</v>
       </c>
       <c t="s" s="1" r="C41">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c s="1" r="D41">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E41">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c s="1" r="F41">
-        <v>406.0</v>
+        <v>240.0</v>
       </c>
       <c s="1" r="G41">
         <v>0.0</v>
@@ -2610,19 +2631,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B42">
-        <v>427982.0</v>
+        <v>440378.0</v>
       </c>
       <c t="s" s="1" r="C42">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c s="1" r="D42">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E42">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c s="1" r="F42">
-        <v>240.0</v>
+        <v>107.0</v>
       </c>
       <c s="1" r="G42">
         <v>0.0</v>
@@ -2639,19 +2660,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B43">
-        <v>440378.0</v>
+        <v>232016.0</v>
       </c>
       <c t="s" s="1" r="C43">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c s="1" r="D43">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E43">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c s="1" r="F43">
-        <v>107.0</v>
+        <v>569.0</v>
       </c>
       <c s="1" r="G43">
         <v>0.0</v>
@@ -2668,19 +2689,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B44">
-        <v>232016.0</v>
+        <v>427894.0</v>
       </c>
       <c t="s" s="1" r="C44">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c s="1" r="D44">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E44">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c s="1" r="F44">
-        <v>569.0</v>
+        <v>158.0</v>
       </c>
       <c s="1" r="G44">
         <v>0.0</v>
@@ -2697,19 +2718,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B45">
-        <v>427894.0</v>
+        <v>231712.0</v>
       </c>
       <c t="s" s="1" r="C45">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c s="1" r="D45">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E45">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c s="1" r="F45">
-        <v>158.0</v>
+        <v>4681.0</v>
       </c>
       <c s="1" r="G45">
         <v>0.0</v>
@@ -2718,7 +2739,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I45">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="46">
@@ -2726,19 +2747,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B46">
-        <v>231712.0</v>
+        <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C46">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c s="1" r="D46">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E46">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c s="1" r="F46">
-        <v>4681.0</v>
+        <v>7575.0</v>
       </c>
       <c s="1" r="G46">
         <v>0.0</v>
@@ -2747,7 +2768,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I46">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
@@ -2755,19 +2776,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B47">
-        <v>231624.0</v>
+        <v>377403.0</v>
       </c>
       <c t="s" s="1" r="C47">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c s="1" r="D47">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E47">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c s="1" r="F47">
-        <v>7575.0</v>
+        <v>45.0</v>
       </c>
       <c s="1" r="G47">
         <v>0.0</v>
@@ -2784,19 +2805,16 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B48">
-        <v>377403.0</v>
+        <v>446206.0</v>
       </c>
       <c t="s" s="1" r="C48">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c s="1" r="D48">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E48">
-        <v>101</v>
-      </c>
-      <c s="1" r="F48">
-        <v>45.0</v>
+        <v>102</v>
       </c>
       <c s="1" r="G48">
         <v>0.0</v>
@@ -2813,16 +2831,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B49">
-        <v>446206.0</v>
+        <v>231873.0</v>
       </c>
       <c t="s" s="1" r="C49">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c s="1" r="D49">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E49">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c s="1" r="F49">
+        <v>1487.0</v>
       </c>
       <c s="1" r="G49">
         <v>0.0</v>
@@ -2839,19 +2860,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B50">
-        <v>231873.0</v>
+        <v>231882.0</v>
       </c>
       <c t="s" s="1" r="C50">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c s="1" r="D50">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E50">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c s="1" r="F50">
-        <v>1487.0</v>
+        <v>4060.0</v>
       </c>
       <c s="1" r="G50">
         <v>0.0</v>
@@ -2868,19 +2889,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B51">
-        <v>231882.0</v>
+        <v>232724.0</v>
       </c>
       <c t="s" s="1" r="C51">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c s="1" r="D51">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E51">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c s="1" r="F51">
-        <v>4060.0</v>
+        <v>123.0</v>
       </c>
       <c s="1" r="G51">
         <v>0.0</v>
@@ -2897,19 +2918,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B52">
-        <v>232724.0</v>
+        <v>440536.0</v>
       </c>
       <c t="s" s="1" r="C52">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c s="1" r="D52">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E52">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c s="1" r="F52">
-        <v>123.0</v>
+        <v>818.0</v>
       </c>
       <c s="1" r="G52">
         <v>0.0</v>
@@ -2929,13 +2950,13 @@
         <v>440536.0</v>
       </c>
       <c t="s" s="1" r="C53">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c s="1" r="D53">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E53">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c s="1" r="F53">
         <v>818.0</v>
@@ -2955,19 +2976,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B54">
-        <v>440536.0</v>
+        <v>232043.0</v>
       </c>
       <c t="s" s="1" r="C54">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c s="1" r="D54">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E54">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c s="1" r="F54">
-        <v>818.0</v>
+        <v>1297.0</v>
       </c>
       <c s="1" r="G54">
         <v>0.0</v>
@@ -2984,19 +3005,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B55">
-        <v>232043.0</v>
+        <v>232052.0</v>
       </c>
       <c t="s" s="1" r="C55">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c s="1" r="D55">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E55">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c s="1" r="F55">
-        <v>1297.0</v>
+        <v>1017.0</v>
       </c>
       <c s="1" r="G55">
         <v>0.0</v>
@@ -3013,19 +3034,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B56">
-        <v>232052.0</v>
+        <v>231970.0</v>
       </c>
       <c t="s" s="1" r="C56">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c s="1" r="D56">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E56">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c s="1" r="F56">
-        <v>1017.0</v>
+        <v>689.0</v>
       </c>
       <c s="1" r="G56">
         <v>0.0</v>
@@ -3042,19 +3063,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B57">
-        <v>231970.0</v>
+        <v>248943.0</v>
       </c>
       <c t="s" s="1" r="C57">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c s="1" r="D57">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E57">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c s="1" r="F57">
-        <v>689.0</v>
+        <v>879.0</v>
       </c>
       <c s="1" r="G57">
         <v>0.0</v>
@@ -3074,13 +3095,13 @@
         <v>248943.0</v>
       </c>
       <c t="s" s="1" r="C58">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c s="1" r="D58">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E58">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c s="1" r="F58">
         <v>879.0</v>
@@ -3100,19 +3121,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B59">
-        <v>248943.0</v>
+        <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C59">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c s="1" r="D59">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E59">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c s="1" r="F59">
-        <v>879.0</v>
+        <v>4759.0</v>
       </c>
       <c s="1" r="G59">
         <v>0.0</v>
@@ -3132,13 +3153,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C60">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c s="1" r="D60">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E60">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c s="1" r="F60">
         <v>4759.0</v>
@@ -3161,13 +3182,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C61">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c s="1" r="D61">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E61">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c s="1" r="F61">
         <v>4759.0</v>
@@ -3190,13 +3211,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C62">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c s="1" r="D62">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E62">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c s="1" r="F62">
         <v>4759.0</v>
@@ -3219,13 +3240,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C63">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c s="1" r="D63">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E63">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c s="1" r="F63">
         <v>4759.0</v>
@@ -3248,13 +3269,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C64">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c s="1" r="D64">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E64">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c s="1" r="F64">
         <v>4759.0</v>
@@ -3277,13 +3298,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C65">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c s="1" r="D65">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E65">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c s="1" r="F65">
         <v>4759.0</v>
@@ -3306,13 +3327,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C66">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c s="1" r="D66">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E66">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c s="1" r="F66">
         <v>4759.0</v>
@@ -3335,13 +3356,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C67">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c s="1" r="D67">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E67">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c s="1" r="F67">
         <v>4759.0</v>
@@ -3361,19 +3382,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B68">
-        <v>248934.0</v>
+        <v>442806.0</v>
       </c>
       <c t="s" s="1" r="C68">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c s="1" r="D68">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E68">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c s="1" r="F68">
-        <v>4759.0</v>
+        <v>306.0</v>
       </c>
       <c s="1" r="G68">
         <v>0.0</v>
@@ -3390,19 +3411,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B69">
-        <v>442806.0</v>
+        <v>232025.0</v>
       </c>
       <c t="s" s="1" r="C69">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c s="1" r="D69">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E69">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c s="1" r="F69">
-        <v>306.0</v>
+        <v>1028.0</v>
       </c>
       <c s="1" r="G69">
         <v>0.0</v>
@@ -3419,28 +3440,28 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B70">
-        <v>232025.0</v>
+        <v>444282.0</v>
       </c>
       <c t="s" s="1" r="C70">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c s="1" r="D70">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E70">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c s="1" r="F70">
-        <v>1028.0</v>
+        <v>99.0</v>
       </c>
       <c s="1" r="G70">
         <v>0.0</v>
       </c>
       <c s="1" r="H70">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="I70">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="71">
@@ -3448,28 +3469,25 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B71">
-        <v>444282.0</v>
+        <v>437149.0</v>
       </c>
       <c t="s" s="1" r="C71">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c s="1" r="D71">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E71">
-        <v>147</v>
-      </c>
-      <c s="1" r="F71">
-        <v>99.0</v>
+        <v>148</v>
       </c>
       <c s="1" r="G71">
         <v>0.0</v>
       </c>
       <c s="1" r="H71">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I71">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="72">
@@ -3477,16 +3495,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B72">
-        <v>437149.0</v>
+        <v>442310.0</v>
       </c>
       <c t="s" s="1" r="C72">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c s="1" r="D72">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E72">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c s="1" r="F72">
+        <v>203.0</v>
       </c>
       <c s="1" r="G72">
         <v>0.0</v>
@@ -3503,19 +3524,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B73">
-        <v>442310.0</v>
+        <v>438647.0</v>
       </c>
       <c t="s" s="1" r="C73">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c s="1" r="D73">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E73">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c s="1" r="F73">
-        <v>203.0</v>
+        <v>767.0</v>
       </c>
       <c s="1" r="G73">
         <v>0.0</v>
@@ -3532,19 +3553,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B74">
-        <v>438647.0</v>
+        <v>445470.0</v>
       </c>
       <c t="s" s="1" r="C74">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c s="1" r="D74">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E74">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c s="1" r="F74">
-        <v>767.0</v>
+        <v>118.0</v>
       </c>
       <c s="1" r="G74">
         <v>0.0</v>
@@ -3561,19 +3582,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B75">
-        <v>445470.0</v>
+        <v>232502.0</v>
       </c>
       <c t="s" s="1" r="C75">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c s="1" r="D75">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E75">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c s="1" r="F75">
-        <v>118.0</v>
+        <v>658.0</v>
       </c>
       <c s="1" r="G75">
         <v>0.0</v>
@@ -3590,19 +3611,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B76">
-        <v>232502.0</v>
+        <v>232089.0</v>
       </c>
       <c t="s" s="1" r="C76">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c s="1" r="D76">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E76">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c s="1" r="F76">
-        <v>658.0</v>
+        <v>942.0</v>
       </c>
       <c s="1" r="G76">
         <v>0.0</v>
@@ -3619,19 +3640,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B77">
-        <v>232089.0</v>
+        <v>233329.0</v>
       </c>
       <c t="s" s="1" r="C77">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c s="1" r="D77">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E77">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c s="1" r="F77">
-        <v>942.0</v>
+        <v>232.0</v>
       </c>
       <c s="1" r="G77">
         <v>0.0</v>
@@ -3648,19 +3669,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B78">
-        <v>233329.0</v>
+        <v>382957.0</v>
       </c>
       <c t="s" s="1" r="C78">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c s="1" r="D78">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E78">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c s="1" r="F78">
-        <v>232.0</v>
+        <v>109.0</v>
       </c>
       <c s="1" r="G78">
         <v>0.0</v>
@@ -3677,19 +3698,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B79">
-        <v>382957.0</v>
+        <v>232186.0</v>
       </c>
       <c t="s" s="1" r="C79">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c s="1" r="D79">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E79">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c s="1" r="F79">
-        <v>109.0</v>
+        <v>28874.0</v>
       </c>
       <c s="1" r="G79">
         <v>0.0</v>
@@ -3706,19 +3727,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B80">
-        <v>232186.0</v>
+        <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C80">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c s="1" r="D80">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E80">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c s="1" r="F80">
-        <v>28874.0</v>
+        <v>4799.0</v>
       </c>
       <c s="1" r="G80">
         <v>0.0</v>
@@ -3738,13 +3759,13 @@
         <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C81">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c s="1" r="D81">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E81">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c s="1" r="F81">
         <v>4799.0</v>
@@ -3764,19 +3785,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B82">
-        <v>232195.0</v>
+        <v>406495.0</v>
       </c>
       <c t="s" s="1" r="C82">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c s="1" r="D82">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E82">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c s="1" r="F82">
-        <v>4799.0</v>
+        <v>304.0</v>
       </c>
       <c s="1" r="G82">
         <v>0.0</v>
@@ -3793,19 +3814,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B83">
-        <v>406495.0</v>
+        <v>232256.0</v>
       </c>
       <c t="s" s="1" r="C83">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c s="1" r="D83">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E83">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c s="1" r="F83">
-        <v>304.0</v>
+        <v>1082.0</v>
       </c>
       <c s="1" r="G83">
         <v>0.0</v>
@@ -3822,19 +3843,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B84">
-        <v>232256.0</v>
+        <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C84">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c s="1" r="D84">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E84">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c s="1" r="F84">
-        <v>1082.0</v>
+        <v>6154.0</v>
       </c>
       <c s="1" r="G84">
         <v>0.0</v>
@@ -3843,7 +3864,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I84">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="85">
@@ -3854,13 +3875,13 @@
         <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C85">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c s="1" r="D85">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E85">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c s="1" r="F85">
         <v>6154.0</v>
@@ -3872,7 +3893,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I85">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="86">
@@ -3883,13 +3904,13 @@
         <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C86">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c s="1" r="D86">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E86">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c s="1" r="F86">
         <v>6154.0</v>
@@ -3909,19 +3930,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B87">
-        <v>232265.0</v>
+        <v>431266.0</v>
       </c>
       <c t="s" s="1" r="C87">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c s="1" r="D87">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E87">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c s="1" r="F87">
-        <v>6154.0</v>
+        <v>115.0</v>
       </c>
       <c s="1" r="G87">
         <v>0.0</v>
@@ -3938,19 +3959,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B88">
-        <v>431266.0</v>
+        <v>233189.0</v>
       </c>
       <c t="s" s="1" r="C88">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c s="1" r="D88">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E88">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="1" r="F88">
-        <v>115.0</v>
+        <v>492.0</v>
       </c>
       <c s="1" r="G88">
         <v>0.0</v>
@@ -3967,19 +3988,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B89">
-        <v>233189.0</v>
+        <v>377421.0</v>
       </c>
       <c t="s" s="1" r="C89">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c s="1" r="D89">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E89">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c s="1" r="F89">
-        <v>492.0</v>
+        <v>166.0</v>
       </c>
       <c s="1" r="G89">
         <v>0.0</v>
@@ -3996,19 +4017,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B90">
-        <v>377421.0</v>
+        <v>232292.0</v>
       </c>
       <c t="s" s="1" r="C90">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c s="1" r="D90">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E90">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c s="1" r="F90">
-        <v>166.0</v>
+        <v>40.0</v>
       </c>
       <c s="1" r="G90">
         <v>0.0</v>
@@ -4025,19 +4046,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B91">
-        <v>232292.0</v>
+        <v>232308.0</v>
       </c>
       <c t="s" s="1" r="C91">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c s="1" r="D91">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E91">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c s="1" r="F91">
-        <v>40.0</v>
+        <v>1056.0</v>
       </c>
       <c s="1" r="G91">
         <v>0.0</v>
@@ -4054,19 +4075,16 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B92">
-        <v>232308.0</v>
+        <v>445869.0</v>
       </c>
       <c t="s" s="1" r="C92">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c s="1" r="D92">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E92">
-        <v>189</v>
-      </c>
-      <c s="1" r="F92">
-        <v>1056.0</v>
+        <v>190</v>
       </c>
       <c s="1" r="G92">
         <v>0.0</v>
@@ -4083,16 +4101,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B93">
-        <v>445869.0</v>
+        <v>418977.0</v>
       </c>
       <c t="s" s="1" r="C93">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c s="1" r="D93">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E93">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c s="1" r="F93">
+        <v>12.0</v>
       </c>
       <c s="1" r="G93">
         <v>0.0</v>
@@ -4109,19 +4130,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B94">
-        <v>418977.0</v>
+        <v>441964.0</v>
       </c>
       <c t="s" s="1" r="C94">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c s="1" r="D94">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E94">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c s="1" r="F94">
-        <v>12.0</v>
+        <v>269.0</v>
       </c>
       <c s="1" r="G94">
         <v>0.0</v>
@@ -4138,19 +4159,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B95">
-        <v>441964.0</v>
+        <v>368601.0</v>
       </c>
       <c t="s" s="1" r="C95">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="1" r="D95">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E95">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c s="1" r="F95">
-        <v>269.0</v>
+        <v>662.0</v>
       </c>
       <c s="1" r="G95">
         <v>0.0</v>
@@ -4167,19 +4188,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B96">
-        <v>368601.0</v>
+        <v>437051.0</v>
       </c>
       <c t="s" s="1" r="C96">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c s="1" r="D96">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E96">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c s="1" r="F96">
-        <v>662.0</v>
+        <v>371.0</v>
       </c>
       <c s="1" r="G96">
         <v>0.0</v>
@@ -4196,19 +4217,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B97">
-        <v>437051.0</v>
+        <v>441955.0</v>
       </c>
       <c t="s" s="1" r="C97">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c s="1" r="D97">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E97">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c s="1" r="F97">
-        <v>371.0</v>
+        <v>626.0</v>
       </c>
       <c s="1" r="G97">
         <v>0.0</v>
@@ -4225,19 +4246,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B98">
-        <v>441955.0</v>
+        <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C98">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c s="1" r="D98">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E98">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c s="1" r="F98">
-        <v>626.0</v>
+        <v>11678.0</v>
       </c>
       <c s="1" r="G98">
         <v>0.0</v>
@@ -4257,13 +4278,13 @@
         <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C99">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c s="1" r="D99">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E99">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c s="1" r="F99">
         <v>11678.0</v>
@@ -4286,13 +4307,13 @@
         <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C100">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c s="1" r="D100">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E100">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c s="1" r="F100">
         <v>11678.0</v>
@@ -4312,19 +4333,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B101">
-        <v>232414.0</v>
+        <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C101">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c s="1" r="D101">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E101">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c s="1" r="F101">
-        <v>11678.0</v>
+        <v>16108.0</v>
       </c>
       <c s="1" r="G101">
         <v>0.0</v>
@@ -4333,7 +4354,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I101">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="102">
@@ -4344,13 +4365,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C102">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c s="1" r="D102">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E102">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c s="1" r="F102">
         <v>16108.0</v>
@@ -4362,7 +4383,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I102">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="103">
@@ -4373,13 +4394,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C103">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c s="1" r="D103">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E103">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c s="1" r="F103">
         <v>16108.0</v>
@@ -4399,19 +4420,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B104">
-        <v>232423.0</v>
+        <v>231837.0</v>
       </c>
       <c t="s" s="1" r="C104">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c s="1" r="D104">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E104">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c s="1" r="F104">
-        <v>16108.0</v>
+        <v>744.0</v>
       </c>
       <c s="1" r="G104">
         <v>0.0</v>
@@ -4420,7 +4441,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I104">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="105">
@@ -4431,13 +4452,13 @@
         <v>231837.0</v>
       </c>
       <c t="s" s="1" r="C105">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c s="1" r="D105">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E105">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c s="1" r="F105">
         <v>744.0</v>
@@ -4449,7 +4470,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I105">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="106">
@@ -4457,19 +4478,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B106">
-        <v>231837.0</v>
+        <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C106">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c s="1" r="D106">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E106">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c s="1" r="F106">
-        <v>744.0</v>
+        <v>6092.0</v>
       </c>
       <c s="1" r="G106">
         <v>0.0</v>
@@ -4489,13 +4510,13 @@
         <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C107">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c s="1" r="D107">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E107">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c s="1" r="F107">
         <v>6092.0</v>
@@ -4518,13 +4539,13 @@
         <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C108">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c s="1" r="D108">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E108">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c s="1" r="F108">
         <v>6092.0</v>
@@ -4544,19 +4565,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B109">
-        <v>232450.0</v>
+        <v>232469.0</v>
       </c>
       <c t="s" s="1" r="C109">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c s="1" r="D109">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E109">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c s="1" r="F109">
-        <v>6092.0</v>
+        <v>399.0</v>
       </c>
       <c s="1" r="G109">
         <v>0.0</v>
@@ -4573,28 +4594,28 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B110">
-        <v>232469.0</v>
+        <v>232557.0</v>
       </c>
       <c t="s" s="1" r="C110">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c s="1" r="D110">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E110">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c s="1" r="F110">
-        <v>399.0</v>
+        <v>10475.0</v>
       </c>
       <c s="1" r="G110">
         <v>0.0</v>
       </c>
       <c s="1" r="H110">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I110">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="111">
@@ -4602,28 +4623,28 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B111">
-        <v>232557.0</v>
+        <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C111">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c s="1" r="D111">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E111">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c s="1" r="F111">
-        <v>10475.0</v>
+        <v>4289.0</v>
       </c>
       <c s="1" r="G111">
         <v>0.0</v>
       </c>
       <c s="1" r="H111">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c s="1" r="I111">
-        <v>26.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="112">
@@ -4634,13 +4655,13 @@
         <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C112">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c s="1" r="D112">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E112">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c s="1" r="F112">
         <v>4289.0</v>
@@ -4649,10 +4670,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H112">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I112">
-        <v>40.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="113">
@@ -4660,19 +4681,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B113">
-        <v>232566.0</v>
+        <v>232575.0</v>
       </c>
       <c t="s" s="1" r="C113">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c s="1" r="D113">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E113">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c s="1" r="F113">
-        <v>4289.0</v>
+        <v>5416.0</v>
       </c>
       <c s="1" r="G113">
         <v>0.0</v>
@@ -4692,13 +4713,13 @@
         <v>232575.0</v>
       </c>
       <c t="s" s="1" r="C114">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c s="1" r="D114">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E114">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c s="1" r="F114">
         <v>5416.0</v>
@@ -4718,28 +4739,28 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B115">
-        <v>232575.0</v>
+        <v>232609.0</v>
       </c>
       <c t="s" s="1" r="C115">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c s="1" r="D115">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E115">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c s="1" r="F115">
-        <v>5416.0</v>
+        <v>2248.0</v>
       </c>
       <c s="1" r="G115">
         <v>0.0</v>
       </c>
       <c s="1" r="H115">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I115">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="116">
@@ -4747,28 +4768,28 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B116">
-        <v>232609.0</v>
+        <v>232618.0</v>
       </c>
       <c t="s" s="1" r="C116">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c s="1" r="D116">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E116">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c s="1" r="F116">
-        <v>2248.0</v>
+        <v>169.0</v>
       </c>
       <c s="1" r="G116">
         <v>0.0</v>
       </c>
       <c s="1" r="H116">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I116">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="117">
@@ -4776,19 +4797,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B117">
-        <v>232618.0</v>
+        <v>232672.0</v>
       </c>
       <c t="s" s="1" r="C117">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c s="1" r="D117">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E117">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c s="1" r="F117">
-        <v>169.0</v>
+        <v>1718.0</v>
       </c>
       <c s="1" r="G117">
         <v>0.0</v>
@@ -4805,19 +4826,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B118">
-        <v>232672.0</v>
+        <v>232706.0</v>
       </c>
       <c t="s" s="1" r="C118">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c s="1" r="D118">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E118">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c s="1" r="F118">
-        <v>1718.0</v>
+        <v>3717.0</v>
       </c>
       <c s="1" r="G118">
         <v>0.0</v>
@@ -4834,19 +4855,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B119">
-        <v>232706.0</v>
+        <v>231642.0</v>
       </c>
       <c t="s" s="1" r="C119">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="1" r="D119">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E119">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="1" r="F119">
-        <v>3717.0</v>
+        <v>1295.0</v>
       </c>
       <c s="1" r="G119">
         <v>0.0</v>
@@ -4866,13 +4887,13 @@
         <v>231642.0</v>
       </c>
       <c t="s" s="1" r="C120">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c s="1" r="D120">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E120">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c s="1" r="F120">
         <v>1295.0</v>
@@ -4895,13 +4916,13 @@
         <v>231642.0</v>
       </c>
       <c t="s" s="1" r="C121">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c s="1" r="D121">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E121">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c s="1" r="F121">
         <v>1295.0</v>
@@ -4921,19 +4942,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B122">
-        <v>231642.0</v>
+        <v>131742.0</v>
       </c>
       <c t="s" s="1" r="C122">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c s="1" r="D122">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E122">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c s="1" r="F122">
-        <v>1295.0</v>
+        <v>1324.0</v>
       </c>
       <c s="1" r="G122">
         <v>0.0</v>
@@ -4953,13 +4974,13 @@
         <v>131742.0</v>
       </c>
       <c t="s" s="1" r="C123">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c s="1" r="D123">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E123">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c s="1" r="F123">
         <v>1324.0</v>
@@ -4982,13 +5003,13 @@
         <v>131742.0</v>
       </c>
       <c t="s" s="1" r="C124">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c s="1" r="D124">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E124">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c s="1" r="F124">
         <v>1324.0</v>
@@ -5008,19 +5029,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B125">
-        <v>131742.0</v>
+        <v>233091.0</v>
       </c>
       <c t="s" s="1" r="C125">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c s="1" r="D125">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E125">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c s="1" r="F125">
-        <v>1324.0</v>
+        <v>237.0</v>
       </c>
       <c s="1" r="G125">
         <v>0.0</v>
@@ -5040,13 +5061,13 @@
         <v>233091.0</v>
       </c>
       <c t="s" s="1" r="C126">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c s="1" r="D126">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E126">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c s="1" r="F126">
         <v>237.0</v>
@@ -5066,19 +5087,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B127">
-        <v>233091.0</v>
+        <v>232788.0</v>
       </c>
       <c t="s" s="1" r="C127">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c s="1" r="D127">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E127">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c s="1" r="F127">
-        <v>237.0</v>
+        <v>2906.0</v>
       </c>
       <c s="1" r="G127">
         <v>0.0</v>
@@ -5095,19 +5116,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B128">
-        <v>232788.0</v>
+        <v>419004.0</v>
       </c>
       <c t="s" s="1" r="C128">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c s="1" r="D128">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E128">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c s="1" r="F128">
-        <v>2906.0</v>
+        <v>152.0</v>
       </c>
       <c s="1" r="G128">
         <v>0.0</v>
@@ -5124,19 +5145,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B129">
-        <v>419004.0</v>
+        <v>232867.0</v>
       </c>
       <c t="s" s="1" r="C129">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c s="1" r="D129">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E129">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c s="1" r="F129">
-        <v>152.0</v>
+        <v>4103.0</v>
       </c>
       <c s="1" r="G129">
         <v>0.0</v>
@@ -5153,19 +5174,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B130">
-        <v>232867.0</v>
+        <v>433299.0</v>
       </c>
       <c t="s" s="1" r="C130">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c s="1" r="D130">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E130">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c s="1" r="F130">
-        <v>4103.0</v>
+        <v>58.0</v>
       </c>
       <c s="1" r="G130">
         <v>0.0</v>
@@ -5182,19 +5203,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B131">
-        <v>433299.0</v>
+        <v>233417.0</v>
       </c>
       <c t="s" s="1" r="C131">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c s="1" r="D131">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E131">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c s="1" r="F131">
-        <v>58.0</v>
+        <v>56.0</v>
       </c>
       <c s="1" r="G131">
         <v>0.0</v>
@@ -5211,25 +5232,25 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B132">
-        <v>233417.0</v>
+        <v>232937.0</v>
       </c>
       <c t="s" s="1" r="C132">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c s="1" r="D132">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E132">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c s="1" r="F132">
-        <v>56.0</v>
+        <v>6165.0</v>
       </c>
       <c s="1" r="G132">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="H132">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="I132">
         <v>0.0</v>
@@ -5240,25 +5261,25 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B133">
-        <v>232937.0</v>
+        <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C133">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c s="1" r="D133">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E133">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c s="1" r="F133">
-        <v>6165.0</v>
+        <v>37392.0</v>
       </c>
       <c s="1" r="G133">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H133">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I133">
         <v>0.0</v>
@@ -5272,13 +5293,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C134">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c s="1" r="D134">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E134">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="1" r="F134">
         <v>37392.0</v>
@@ -5301,13 +5322,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C135">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c s="1" r="D135">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E135">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c s="1" r="F135">
         <v>37392.0</v>
@@ -5330,13 +5351,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C136">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c s="1" r="D136">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E136">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c s="1" r="F136">
         <v>37392.0</v>
@@ -5359,13 +5380,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C137">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c s="1" r="D137">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E137">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c s="1" r="F137">
         <v>37392.0</v>
@@ -5388,13 +5409,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C138">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c s="1" r="D138">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E138">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c s="1" r="F138">
         <v>37392.0</v>
@@ -5414,28 +5435,28 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B139">
-        <v>232946.0</v>
+        <v>232982.0</v>
       </c>
       <c t="s" s="1" r="C139">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c s="1" r="D139">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E139">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c s="1" r="F139">
-        <v>37392.0</v>
+        <v>20595.0</v>
       </c>
       <c s="1" r="G139">
         <v>0.0</v>
       </c>
       <c s="1" r="H139">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I139">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="140">
@@ -5443,28 +5464,28 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B140">
-        <v>232982.0</v>
+        <v>233019.0</v>
       </c>
       <c t="s" s="1" r="C140">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c s="1" r="D140">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E140">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c s="1" r="F140">
-        <v>20595.0</v>
+        <v>3341.0</v>
       </c>
       <c s="1" r="G140">
         <v>0.0</v>
       </c>
       <c s="1" r="H140">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I140">
-        <v>32.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="141">
@@ -5472,19 +5493,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B141">
-        <v>233019.0</v>
+        <v>233037.0</v>
       </c>
       <c t="s" s="1" r="C141">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c s="1" r="D141">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E141">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c s="1" r="F141">
-        <v>3341.0</v>
+        <v>1468.0</v>
       </c>
       <c s="1" r="G141">
         <v>0.0</v>
@@ -5504,13 +5525,13 @@
         <v>233037.0</v>
       </c>
       <c t="s" s="1" r="C142">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c s="1" r="D142">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E142">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c s="1" r="F142">
         <v>1468.0</v>
@@ -5530,25 +5551,25 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B143">
-        <v>233037.0</v>
+        <v>233116.0</v>
       </c>
       <c t="s" s="1" r="C143">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c s="1" r="D143">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E143">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c s="1" r="F143">
-        <v>1468.0</v>
+        <v>4358.0</v>
       </c>
       <c s="1" r="G143">
         <v>0.0</v>
       </c>
       <c s="1" r="H143">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="I143">
         <v>0.0</v>
@@ -5559,25 +5580,25 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B144">
-        <v>233116.0</v>
+        <v>233277.0</v>
       </c>
       <c t="s" s="1" r="C144">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c s="1" r="D144">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E144">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c s="1" r="F144">
-        <v>4358.0</v>
+        <v>9329.0</v>
       </c>
       <c s="1" r="G144">
         <v>0.0</v>
       </c>
       <c s="1" r="H144">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I144">
         <v>0.0</v>
@@ -5588,19 +5609,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B145">
-        <v>233277.0</v>
+        <v>233301.0</v>
       </c>
       <c t="s" s="1" r="C145">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c s="1" r="D145">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E145">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c s="1" r="F145">
-        <v>9329.0</v>
+        <v>732.0</v>
       </c>
       <c s="1" r="G145">
         <v>0.0</v>
@@ -5617,19 +5638,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B146">
-        <v>233301.0</v>
+        <v>233295.0</v>
       </c>
       <c t="s" s="1" r="C146">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c s="1" r="D146">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E146">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c s="1" r="F146">
-        <v>732.0</v>
+        <v>1126.0</v>
       </c>
       <c s="1" r="G146">
         <v>0.0</v>
@@ -5646,19 +5667,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B147">
-        <v>233295.0</v>
+        <v>233310.0</v>
       </c>
       <c t="s" s="1" r="C147">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c s="1" r="D147">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E147">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c s="1" r="F147">
-        <v>1126.0</v>
+        <v>2691.0</v>
       </c>
       <c s="1" r="G147">
         <v>0.0</v>
@@ -5678,13 +5699,13 @@
         <v>233310.0</v>
       </c>
       <c t="s" s="1" r="C148">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c s="1" r="D148">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E148">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c s="1" r="F148">
         <v>2691.0</v>
@@ -5704,19 +5725,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B149">
-        <v>233310.0</v>
+        <v>231651.0</v>
       </c>
       <c t="s" s="1" r="C149">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c s="1" r="D149">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E149">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c s="1" r="F149">
-        <v>2691.0</v>
+        <v>3444.0</v>
       </c>
       <c s="1" r="G149">
         <v>0.0</v>
@@ -5736,13 +5757,13 @@
         <v>231651.0</v>
       </c>
       <c t="s" s="1" r="C150">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c s="1" r="D150">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E150">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c s="1" r="F150">
         <v>3444.0</v>
@@ -5762,19 +5783,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B151">
-        <v>231651.0</v>
+        <v>233338.0</v>
       </c>
       <c t="s" s="1" r="C151">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c s="1" r="D151">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E151">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c s="1" r="F151">
-        <v>3444.0</v>
+        <v>1409.0</v>
       </c>
       <c s="1" r="G151">
         <v>0.0</v>
@@ -5791,19 +5812,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B152">
-        <v>233338.0</v>
+        <v>437769.0</v>
       </c>
       <c t="s" s="1" r="C152">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c s="1" r="D152">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E152">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c s="1" r="F152">
-        <v>1409.0</v>
+        <v>436.0</v>
       </c>
       <c s="1" r="G152">
         <v>0.0</v>
@@ -5820,19 +5841,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B153">
-        <v>437769.0</v>
+        <v>233408.0</v>
       </c>
       <c t="s" s="1" r="C153">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c s="1" r="D153">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E153">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c s="1" r="F153">
-        <v>436.0</v>
+        <v>155.0</v>
       </c>
       <c s="1" r="G153">
         <v>0.0</v>
@@ -5849,19 +5870,16 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B154">
-        <v>233408.0</v>
+        <v>435213.0</v>
       </c>
       <c t="s" s="1" r="C154">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c s="1" r="D154">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E154">
-        <v>313</v>
-      </c>
-      <c s="1" r="F154">
-        <v>155.0</v>
+        <v>314</v>
       </c>
       <c s="1" r="G154">
         <v>0.0</v>
@@ -5878,16 +5896,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B155">
-        <v>435213.0</v>
+        <v>233426.0</v>
       </c>
       <c t="s" s="1" r="C155">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c s="1" r="D155">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E155">
-        <v>315</v>
+        <v>316</v>
+      </c>
+      <c s="1" r="F155">
+        <v>1850.0</v>
       </c>
       <c s="1" r="G155">
         <v>0.0</v>
@@ -5896,7 +5917,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I155">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="156">
@@ -5904,19 +5925,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B156">
-        <v>233426.0</v>
+        <v>441876.0</v>
       </c>
       <c t="s" s="1" r="C156">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c s="1" r="D156">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E156">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c s="1" r="F156">
-        <v>1850.0</v>
+        <v>60.0</v>
       </c>
       <c s="1" r="G156">
         <v>0.0</v>
@@ -5925,7 +5946,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I156">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="157">
@@ -5933,19 +5954,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B157">
-        <v>441876.0</v>
+        <v>233499.0</v>
       </c>
       <c t="s" s="1" r="C157">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c s="1" r="D157">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E157">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c s="1" r="F157">
-        <v>60.0</v>
+        <v>627.0</v>
       </c>
       <c s="1" r="G157">
         <v>0.0</v>
@@ -5962,19 +5983,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B158">
-        <v>233499.0</v>
+        <v>234216.0</v>
       </c>
       <c t="s" s="1" r="C158">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c s="1" r="D158">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E158">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c s="1" r="F158">
-        <v>627.0</v>
+        <v>833.0</v>
       </c>
       <c s="1" r="G158">
         <v>0.0</v>
@@ -5991,19 +6012,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B159">
-        <v>234216.0</v>
+        <v>232885.0</v>
       </c>
       <c t="s" s="1" r="C159">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c s="1" r="D159">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E159">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c s="1" r="F159">
-        <v>833.0</v>
+        <v>249.0</v>
       </c>
       <c s="1" r="G159">
         <v>0.0</v>
@@ -6020,19 +6041,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B160">
-        <v>232885.0</v>
+        <v>233541.0</v>
       </c>
       <c t="s" s="1" r="C160">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c s="1" r="D160">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E160">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c s="1" r="F160">
-        <v>249.0</v>
+        <v>3000.0</v>
       </c>
       <c s="1" r="G160">
         <v>0.0</v>
@@ -6049,19 +6070,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B161">
-        <v>233541.0</v>
+        <v>261931.0</v>
       </c>
       <c t="s" s="1" r="C161">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c s="1" r="D161">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E161">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c s="1" r="F161">
-        <v>3000.0</v>
+        <v>340.0</v>
       </c>
       <c s="1" r="G161">
         <v>0.0</v>
@@ -6078,19 +6099,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B162">
-        <v>261931.0</v>
+        <v>233611.0</v>
       </c>
       <c t="s" s="1" r="C162">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c s="1" r="D162">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E162">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c s="1" r="F162">
-        <v>340.0</v>
+        <v>581.0</v>
       </c>
       <c s="1" r="G162">
         <v>0.0</v>
@@ -6099,7 +6120,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I162">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="163">
@@ -6107,19 +6128,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B163">
-        <v>233611.0</v>
+        <v>233082.0</v>
       </c>
       <c t="s" s="1" r="C163">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c s="1" r="D163">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E163">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c s="1" r="F163">
-        <v>581.0</v>
+        <v>194.0</v>
       </c>
       <c s="1" r="G163">
         <v>0.0</v>
@@ -6128,7 +6149,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I163">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="164">
@@ -6136,19 +6157,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B164">
-        <v>233082.0</v>
+        <v>233639.0</v>
       </c>
       <c t="s" s="1" r="C164">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c s="1" r="D164">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E164">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c s="1" r="F164">
-        <v>194.0</v>
+        <v>4686.0</v>
       </c>
       <c s="1" r="G164">
         <v>0.0</v>
@@ -6165,19 +6186,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B165">
-        <v>233639.0</v>
+        <v>233648.0</v>
       </c>
       <c t="s" s="1" r="C165">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c s="1" r="D165">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E165">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c s="1" r="F165">
-        <v>4686.0</v>
+        <v>3835.0</v>
       </c>
       <c s="1" r="G165">
         <v>0.0</v>
@@ -6194,19 +6215,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B166">
-        <v>233648.0</v>
+        <v>233657.0</v>
       </c>
       <c t="s" s="1" r="C166">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c s="1" r="D166">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E166">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c s="1" r="F166">
-        <v>3835.0</v>
+        <v>140.0</v>
       </c>
       <c s="1" r="G166">
         <v>0.0</v>
@@ -6223,19 +6244,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B167">
-        <v>233657.0</v>
+        <v>233666.0</v>
       </c>
       <c t="s" s="1" r="C167">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c s="1" r="D167">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E167">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c s="1" r="F167">
-        <v>140.0</v>
+        <v>32.0</v>
       </c>
       <c s="1" r="G167">
         <v>0.0</v>
@@ -6252,19 +6273,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B168">
-        <v>233666.0</v>
+        <v>438498.0</v>
       </c>
       <c t="s" s="1" r="C168">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c s="1" r="D168">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E168">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c s="1" r="F168">
-        <v>32.0</v>
+        <v>385.0</v>
       </c>
       <c s="1" r="G168">
         <v>0.0</v>
@@ -6281,19 +6302,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B169">
-        <v>438498.0</v>
+        <v>231721.0</v>
       </c>
       <c t="s" s="1" r="C169">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c s="1" r="D169">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E169">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c s="1" r="F169">
-        <v>385.0</v>
+        <v>54.0</v>
       </c>
       <c s="1" r="G169">
         <v>0.0</v>
@@ -6310,19 +6331,16 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B170">
-        <v>231721.0</v>
+        <v>232593.0</v>
       </c>
       <c t="s" s="1" r="C170">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c s="1" r="D170">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E170">
-        <v>345</v>
-      </c>
-      <c s="1" r="F170">
-        <v>54.0</v>
+        <v>346</v>
       </c>
       <c s="1" r="G170">
         <v>0.0</v>
@@ -6339,16 +6357,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B171">
-        <v>232593.0</v>
+        <v>233718.0</v>
       </c>
       <c t="s" s="1" r="C171">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c s="1" r="D171">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E171">
-        <v>347</v>
+        <v>348</v>
+      </c>
+      <c s="1" r="F171">
+        <v>738.0</v>
       </c>
       <c s="1" r="G171">
         <v>0.0</v>
@@ -6365,19 +6386,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B172">
-        <v>233718.0</v>
+        <v>233286.0</v>
       </c>
       <c t="s" s="1" r="C172">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c s="1" r="D172">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E172">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c s="1" r="F172">
-        <v>738.0</v>
+        <v>31.0</v>
       </c>
       <c s="1" r="G172">
         <v>0.0</v>
@@ -6394,19 +6415,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B173">
-        <v>233286.0</v>
+        <v>444884.0</v>
       </c>
       <c t="s" s="1" r="C173">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c s="1" r="D173">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E173">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c s="1" r="F173">
-        <v>31.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="G173">
         <v>0.0</v>
@@ -6415,7 +6436,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I173">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="174">
@@ -6423,19 +6444,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B174">
-        <v>444884.0</v>
+        <v>248970.0</v>
       </c>
       <c t="s" s="1" r="C174">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c s="1" r="D174">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E174">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c s="1" r="F174">
-        <v>7.0</v>
+        <v>316.0</v>
       </c>
       <c s="1" r="G174">
         <v>0.0</v>
@@ -6444,7 +6465,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I174">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="175">
@@ -6452,19 +6473,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B175">
-        <v>248970.0</v>
+        <v>440341.0</v>
       </c>
       <c t="s" s="1" r="C175">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c s="1" r="D175">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E175">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c s="1" r="F175">
-        <v>316.0</v>
+        <v>958.0</v>
       </c>
       <c s="1" r="G175">
         <v>0.0</v>
@@ -6481,19 +6502,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B176">
-        <v>440341.0</v>
+        <v>233897.0</v>
       </c>
       <c t="s" s="1" r="C176">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c s="1" r="D176">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E176">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c s="1" r="F176">
-        <v>958.0</v>
+        <v>1836.0</v>
       </c>
       <c s="1" r="G176">
         <v>0.0</v>
@@ -6510,19 +6531,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B177">
-        <v>233897.0</v>
+        <v>233754.0</v>
       </c>
       <c t="s" s="1" r="C177">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c s="1" r="D177">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E177">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c s="1" r="F177">
-        <v>1836.0</v>
+        <v>8515.0</v>
       </c>
       <c s="1" r="G177">
         <v>0.0</v>
@@ -6539,19 +6560,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B178">
-        <v>233754.0</v>
+        <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C178">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c s="1" r="D178">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E178">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c s="1" r="F178">
-        <v>8515.0</v>
+        <v>22691.0</v>
       </c>
       <c s="1" r="G178">
         <v>0.0</v>
@@ -6571,13 +6592,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C179">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c s="1" r="D179">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E179">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c s="1" r="F179">
         <v>22691.0</v>
@@ -6600,13 +6621,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C180">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c s="1" r="D180">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E180">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c s="1" r="F180">
         <v>22691.0</v>
@@ -6629,13 +6650,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C181">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c s="1" r="D181">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E181">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c s="1" r="F181">
         <v>22691.0</v>
@@ -6658,13 +6679,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C182">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c s="1" r="D182">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E182">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c s="1" r="F182">
         <v>22691.0</v>
@@ -6684,19 +6705,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B183">
-        <v>233772.0</v>
+        <v>232919.0</v>
       </c>
       <c t="s" s="1" r="C183">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c s="1" r="D183">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E183">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c s="1" r="F183">
-        <v>22691.0</v>
+        <v>93.0</v>
       </c>
       <c s="1" r="G183">
         <v>0.0</v>
@@ -6713,19 +6734,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B184">
-        <v>232919.0</v>
+        <v>233842.0</v>
       </c>
       <c t="s" s="1" r="C184">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c s="1" r="D184">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E184">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c s="1" r="F184">
-        <v>93.0</v>
+        <v>391.0</v>
       </c>
       <c s="1" r="G184">
         <v>0.0</v>
@@ -6745,13 +6766,13 @@
         <v>233842.0</v>
       </c>
       <c t="s" s="1" r="C185">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c s="1" r="D185">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E185">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c s="1" r="F185">
         <v>391.0</v>
@@ -6771,28 +6792,28 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B186">
-        <v>233842.0</v>
+        <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C186">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c s="1" r="D186">
+        <v>1.0</v>
+      </c>
+      <c t="s" s="1" r="E186">
+        <v>378</v>
+      </c>
+      <c s="1" r="F186">
+        <v>4729.0</v>
+      </c>
+      <c s="1" r="G186">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H186">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I186">
         <v>2.0</v>
-      </c>
-      <c t="s" s="1" r="E186">
-        <v>377</v>
-      </c>
-      <c s="1" r="F186">
-        <v>391.0</v>
-      </c>
-      <c s="1" r="G186">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H186">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I186">
-        <v>0.0</v>
       </c>
     </row>
     <row r="187">
@@ -6800,19 +6821,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B187">
-        <v>232681.0</v>
+        <v>442189.0</v>
       </c>
       <c t="s" s="1" r="C187">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c s="1" r="D187">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E187">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c s="1" r="F187">
-        <v>4729.0</v>
+        <v>1266.0</v>
       </c>
       <c s="1" r="G187">
         <v>0.0</v>
@@ -6821,7 +6842,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I187">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="188">
@@ -6829,19 +6850,16 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B188">
-        <v>442189.0</v>
+        <v>446756.0</v>
       </c>
       <c t="s" s="1" r="C188">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c s="1" r="D188">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E188">
-        <v>381</v>
-      </c>
-      <c s="1" r="F188">
-        <v>1266.0</v>
+        <v>382</v>
       </c>
       <c s="1" r="G188">
         <v>0.0</v>
@@ -6858,25 +6876,28 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B189">
-        <v>446756.0</v>
+        <v>233374.0</v>
       </c>
       <c t="s" s="1" r="C189">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c s="1" r="D189">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E189">
-        <v>383</v>
+        <v>384</v>
+      </c>
+      <c s="1" r="F189">
+        <v>4475.0</v>
       </c>
       <c s="1" r="G189">
         <v>0.0</v>
       </c>
       <c s="1" r="H189">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="I189">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="190">
@@ -6884,28 +6905,28 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B190">
-        <v>233374.0</v>
+        <v>442639.0</v>
       </c>
       <c t="s" s="1" r="C190">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c s="1" r="D190">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E190">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c s="1" r="F190">
-        <v>4475.0</v>
+        <v>92.0</v>
       </c>
       <c s="1" r="G190">
         <v>0.0</v>
       </c>
       <c s="1" r="H190">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I190">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="191">
@@ -6913,19 +6934,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B191">
-        <v>442639.0</v>
+        <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C191">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c s="1" r="D191">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E191">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c s="1" r="F191">
-        <v>92.0</v>
+        <v>23341.0</v>
       </c>
       <c s="1" r="G191">
         <v>0.0</v>
@@ -6934,7 +6955,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I191">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="192">
@@ -6945,13 +6966,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C192">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c s="1" r="D192">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E192">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c s="1" r="F192">
         <v>23341.0</v>
@@ -6963,7 +6984,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I192">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="193">
@@ -6974,13 +6995,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C193">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c s="1" r="D193">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E193">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c s="1" r="F193">
         <v>23341.0</v>
@@ -7003,13 +7024,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C194">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c s="1" r="D194">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E194">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c s="1" r="F194">
         <v>23341.0</v>
@@ -7032,13 +7053,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C195">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c s="1" r="D195">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E195">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c s="1" r="F195">
         <v>23341.0</v>
@@ -7061,13 +7082,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C196">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c s="1" r="D196">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E196">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c s="1" r="F196">
         <v>23341.0</v>
@@ -7090,13 +7111,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C197">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c s="1" r="D197">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E197">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c s="1" r="F197">
         <v>23341.0</v>
@@ -7116,19 +7137,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B198">
-        <v>234076.0</v>
+        <v>377485.0</v>
       </c>
       <c t="s" s="1" r="C198">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c s="1" r="D198">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E198">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c s="1" r="F198">
-        <v>23341.0</v>
+        <v>26.0</v>
       </c>
       <c s="1" r="G198">
         <v>0.0</v>
@@ -7145,19 +7166,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B199">
-        <v>377485.0</v>
+        <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C199">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c s="1" r="D199">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E199">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c s="1" r="F199">
-        <v>26.0</v>
+        <v>28303.0</v>
       </c>
       <c s="1" r="G199">
         <v>0.0</v>
@@ -7177,13 +7198,13 @@
         <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C200">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c s="1" r="D200">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E200">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c s="1" r="F200">
         <v>28303.0</v>
@@ -7203,19 +7224,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B201">
-        <v>234030.0</v>
+        <v>233903.0</v>
       </c>
       <c t="s" s="1" r="C201">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c s="1" r="D201">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E201">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c s="1" r="F201">
-        <v>28303.0</v>
+        <v>2299.0</v>
       </c>
       <c s="1" r="G201">
         <v>0.0</v>
@@ -7232,19 +7253,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B202">
-        <v>233903.0</v>
+        <v>233912.0</v>
       </c>
       <c t="s" s="1" r="C202">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c s="1" r="D202">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E202">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c s="1" r="F202">
-        <v>2299.0</v>
+        <v>1149.0</v>
       </c>
       <c s="1" r="G202">
         <v>0.0</v>
@@ -7261,19 +7282,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B203">
-        <v>233912.0</v>
+        <v>234085.0</v>
       </c>
       <c t="s" s="1" r="C203">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c s="1" r="D203">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E203">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c s="1" r="F203">
-        <v>1149.0</v>
+        <v>1362.0</v>
       </c>
       <c s="1" r="G203">
         <v>0.0</v>
@@ -7290,19 +7311,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B204">
-        <v>234085.0</v>
+        <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C204">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c s="1" r="D204">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E204">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c s="1" r="F204">
-        <v>1362.0</v>
+        <v>27619.0</v>
       </c>
       <c s="1" r="G204">
         <v>0.0</v>
@@ -7322,13 +7343,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C205">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c s="1" r="D205">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E205">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c s="1" r="F205">
         <v>27619.0</v>
@@ -7351,13 +7372,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C206">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c s="1" r="D206">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E206">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c s="1" r="F206">
         <v>27619.0</v>
@@ -7380,13 +7401,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C207">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c s="1" r="D207">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E207">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c s="1" r="F207">
         <v>27619.0</v>
@@ -7409,13 +7430,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C208">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c s="1" r="D208">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E208">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c s="1" r="F208">
         <v>27619.0</v>
@@ -7438,13 +7459,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C209">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c s="1" r="D209">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E209">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c s="1" r="F209">
         <v>27619.0</v>
@@ -7467,13 +7488,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C210">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c s="1" r="D210">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E210">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c s="1" r="F210">
         <v>27619.0</v>
@@ -7496,13 +7517,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C211">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c s="1" r="D211">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E211">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c s="1" r="F211">
         <v>27619.0</v>
@@ -7522,19 +7543,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B212">
-        <v>233921.0</v>
+        <v>234119.0</v>
       </c>
       <c t="s" s="1" r="C212">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c s="1" r="D212">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E212">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c s="1" r="F212">
-        <v>27619.0</v>
+        <v>113.0</v>
       </c>
       <c s="1" r="G212">
         <v>0.0</v>
@@ -7551,19 +7572,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B213">
-        <v>234119.0</v>
+        <v>430254.0</v>
       </c>
       <c t="s" s="1" r="C213">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c s="1" r="D213">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E213">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c s="1" r="F213">
-        <v>113.0</v>
+        <v>148.0</v>
       </c>
       <c s="1" r="G213">
         <v>0.0</v>
@@ -7580,19 +7601,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B214">
-        <v>430254.0</v>
+        <v>234155.0</v>
       </c>
       <c t="s" s="1" r="C214">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c s="1" r="D214">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E214">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c s="1" r="F214">
-        <v>148.0</v>
+        <v>4859.0</v>
       </c>
       <c s="1" r="G214">
         <v>0.0</v>
@@ -7609,19 +7630,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B215">
-        <v>234155.0</v>
+        <v>234164.0</v>
       </c>
       <c t="s" s="1" r="C215">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c s="1" r="D215">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E215">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c s="1" r="F215">
-        <v>4859.0</v>
+        <v>1777.0</v>
       </c>
       <c s="1" r="G215">
         <v>0.0</v>
@@ -7638,19 +7659,16 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B216">
-        <v>234164.0</v>
+        <v>234137.0</v>
       </c>
       <c t="s" s="1" r="C216">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c s="1" r="D216">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E216">
-        <v>437</v>
-      </c>
-      <c s="1" r="F216">
-        <v>1777.0</v>
+        <v>438</v>
       </c>
       <c s="1" r="G216">
         <v>0.0</v>
@@ -7667,25 +7685,28 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B217">
-        <v>234137.0</v>
+        <v>234173.0</v>
       </c>
       <c t="s" s="1" r="C217">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c s="1" r="D217">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E217">
-        <v>439</v>
+        <v>440</v>
+      </c>
+      <c s="1" r="F217">
+        <v>1442.0</v>
       </c>
       <c s="1" r="G217">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="H217">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c s="1" r="I217">
-        <v>0.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="218">
@@ -7693,28 +7714,28 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B218">
-        <v>234173.0</v>
+        <v>233949.0</v>
       </c>
       <c t="s" s="1" r="C218">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c s="1" r="D218">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E218">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c s="1" r="F218">
-        <v>1442.0</v>
+        <v>8361.0</v>
       </c>
       <c s="1" r="G218">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H218">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I218">
-        <v>102.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="219">
@@ -7722,19 +7743,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B219">
-        <v>233949.0</v>
+        <v>234191.0</v>
       </c>
       <c t="s" s="1" r="C219">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c s="1" r="D219">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E219">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c s="1" r="F219">
-        <v>8361.0</v>
+        <v>128.0</v>
       </c>
       <c s="1" r="G219">
         <v>0.0</v>
@@ -7751,19 +7772,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B220">
-        <v>234191.0</v>
+        <v>445683.0</v>
       </c>
       <c t="s" s="1" r="C220">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c s="1" r="D220">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E220">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c s="1" r="F220">
-        <v>128.0</v>
+        <v>97.0</v>
       </c>
       <c s="1" r="G220">
         <v>0.0</v>
@@ -7780,19 +7801,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B221">
-        <v>445683.0</v>
+        <v>234207.0</v>
       </c>
       <c t="s" s="1" r="C221">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c s="1" r="D221">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E221">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c s="1" r="F221">
-        <v>97.0</v>
+        <v>2174.0</v>
       </c>
       <c s="1" r="G221">
         <v>0.0</v>
@@ -7809,19 +7830,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B222">
-        <v>234207.0</v>
+        <v>234225.0</v>
       </c>
       <c t="s" s="1" r="C222">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c s="1" r="D222">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E222">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c s="1" r="F222">
-        <v>2174.0</v>
+        <v>142.0</v>
       </c>
       <c s="1" r="G222">
         <v>0.0</v>
@@ -7838,19 +7859,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B223">
-        <v>234225.0</v>
+        <v>234359.0</v>
       </c>
       <c t="s" s="1" r="C223">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c s="1" r="D223">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E223">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c s="1" r="F223">
-        <v>142.0</v>
+        <v>228.0</v>
       </c>
       <c s="1" r="G223">
         <v>0.0</v>
@@ -7867,19 +7888,19 @@
         <v>2004.0</v>
       </c>
       <c s="1" r="B224">
-        <v>234359.0</v>
+        <v>234377.0</v>
       </c>
       <c t="s" s="1" r="C224">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c s="1" r="D224">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E224">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c s="1" r="F224">
-        <v>228.0</v>
+        <v>2700.0</v>
       </c>
       <c s="1" r="G224">
         <v>0.0</v>
@@ -7888,35 +7909,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I224">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="225">
-      <c s="1" r="A225">
-        <v>2004.0</v>
-      </c>
-      <c s="1" r="B225">
-        <v>234377.0</v>
-      </c>
-      <c t="s" s="1" r="C225">
-        <v>454</v>
-      </c>
-      <c s="1" r="D225">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="1" r="E225">
-        <v>455</v>
-      </c>
-      <c s="1" r="F225">
-        <v>2700.0</v>
-      </c>
-      <c s="1" r="G225">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H225">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I225">
         <v>0.0</v>
       </c>
     </row>
